--- a/DataBase/healthtag/head/head.xlsx
+++ b/DataBase/healthtag/head/head.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\하현우\code\Dev-Dream\HealthTag\DataBase\healthtag\head\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07018FD5-FCE4-4282-97BB-652E0742ED2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4499D2-A6B2-4003-8C32-A6B6A49451A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90FDBF85-6743-40FE-AE7D-BF4B610ED247}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{90FDBF85-6743-40FE-AE7D-BF4B610ED247}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기억력 감퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알츠하이머병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,15 +169,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의식/언어/인지기능 저하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>류마티스 관절염</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>녹내장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인지기능저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억력감퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B11C84F-799D-4E37-8265-8BC879B3AD43}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,13 +588,13 @@
         <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
